--- a/data_year/zb/科技/规模以上工业企业产品和工艺创新情况/实现产品创新的企业所占比重/按登记注册类型分实现产品创新的企业占规模以上工业企业的比重.xlsx
+++ b/data_year/zb/科技/规模以上工业企业产品和工艺创新情况/实现产品创新的企业所占比重/按登记注册类型分实现产品创新的企业占规模以上工业企业的比重.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,6 +624,49 @@
         <v>11.311</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>43.396</v>
+      </c>
+      <c r="C5" t="n">
+        <v>35.581</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.997</v>
+      </c>
+      <c r="E5" t="n">
+        <v>21.507</v>
+      </c>
+      <c r="F5" t="n">
+        <v>37.057</v>
+      </c>
+      <c r="G5" t="n">
+        <v>33.813</v>
+      </c>
+      <c r="H5" t="n">
+        <v>37.97</v>
+      </c>
+      <c r="I5" t="n">
+        <v>35.425</v>
+      </c>
+      <c r="J5" t="n">
+        <v>20</v>
+      </c>
+      <c r="K5" t="n">
+        <v>37.017</v>
+      </c>
+      <c r="L5" t="n">
+        <v>63.463</v>
+      </c>
+      <c r="M5" t="n">
+        <v>11.534</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
